--- a/data/trans_dic/P38B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.8897105572722896</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8718524828803733</v>
+        <v>0.8718524828803735</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.9297771848103746</v>
@@ -655,7 +655,7 @@
         <v>0.9336689507240966</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.9406195594023783</v>
+        <v>0.9406195594023786</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.9091378216940178</v>
@@ -664,7 +664,7 @@
         <v>0.9147107220578526</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9122217777621876</v>
+        <v>0.9122217777621877</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8578158955685444</v>
+        <v>0.8570342149199009</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8652864478302364</v>
+        <v>0.8636239295025382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8378178708574642</v>
+        <v>0.8366411018636321</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9139975927098708</v>
+        <v>0.9153449118994093</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9151195085757186</v>
+        <v>0.9168375873223314</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9236478177399157</v>
+        <v>0.9242008342634968</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8962465429665912</v>
+        <v>0.8958950052943107</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8998174328001569</v>
+        <v>0.9006152782397366</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8935768756480513</v>
+        <v>0.8961422923352744</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9029601314084246</v>
+        <v>0.9018513926430096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9099594130951869</v>
+        <v>0.9113619344304841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.900459230191942</v>
+        <v>0.8991506683035907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9433391436369517</v>
+        <v>0.9437679316030656</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9473401289854125</v>
+        <v>0.948472006989571</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9542446053607431</v>
+        <v>0.9547697822315147</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9207143457138063</v>
+        <v>0.9211816999731399</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9266010810797481</v>
+        <v>0.928742071727255</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9265714470556159</v>
+        <v>0.9272356587505405</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7557864582503852</v>
+        <v>0.7597208559983235</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7729068018767227</v>
+        <v>0.7726663732971961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7454259866277028</v>
+        <v>0.7451804263904787</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8228306749118965</v>
+        <v>0.82283606939155</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8381334129908302</v>
+        <v>0.8397779938907323</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8128159456922194</v>
+        <v>0.8119977854487883</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.793724805596548</v>
+        <v>0.7946792945580096</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8101341196112596</v>
+        <v>0.8107788556718694</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7834002728882061</v>
+        <v>0.7852156369299492</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7946977752085307</v>
+        <v>0.796116754311442</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8104994416971724</v>
+        <v>0.8103965095512818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7900845486137608</v>
+        <v>0.7904541186944577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8563998691031858</v>
+        <v>0.8586633179792216</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8692648742679675</v>
+        <v>0.8713048433067417</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.847754818837018</v>
+        <v>0.8455982092463963</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8201766045475045</v>
+        <v>0.8205210571530243</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8353235386305532</v>
+        <v>0.8346395080781549</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.812286055717773</v>
+        <v>0.8143413233235677</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.8141218968869272</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.838907643702672</v>
+        <v>0.8389076437026719</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.8703459151867814</v>
@@ -882,7 +882,7 @@
         <v>0.8250870240697575</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.866570503767284</v>
+        <v>0.8665705037672838</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8464061334992551</v>
+        <v>0.8423532679474068</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7785183368739633</v>
+        <v>0.7794518928547964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8053465226370048</v>
+        <v>0.8059989910456693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8352518206959137</v>
+        <v>0.8389180296916787</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8024875567786038</v>
+        <v>0.8018175740058689</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8675219262873508</v>
+        <v>0.8706882835146056</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8514325117682989</v>
+        <v>0.8499474094056468</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8032551681749233</v>
+        <v>0.8002352938279226</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8444138927532491</v>
+        <v>0.8461116302855632</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9047821733091979</v>
+        <v>0.9060667350703324</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8464334225031328</v>
+        <v>0.8461954725544838</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8683818203501897</v>
+        <v>0.8732090618778031</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9021822977014717</v>
+        <v>0.9022565704349268</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8674900310173023</v>
+        <v>0.8654904074982418</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.913833666869031</v>
+        <v>0.9160668803582688</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8958044715750154</v>
+        <v>0.8946366755083667</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8478736869052408</v>
+        <v>0.8452063922960723</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8846337770585855</v>
+        <v>0.8859395681693188</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.81846002037433</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8000138222811906</v>
+        <v>0.8000138222811907</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.8780185797865248</v>
@@ -991,7 +991,7 @@
         <v>0.8468872576244739</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.8344186010118373</v>
+        <v>0.8344186010118374</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8060511761315434</v>
+        <v>0.8064768681427721</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8052054249905182</v>
+        <v>0.8044742799855076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7838399831957352</v>
+        <v>0.7830534110770244</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8671223452605141</v>
+        <v>0.8667520931631758</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8625804494816296</v>
+        <v>0.861256564373318</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8540966376507663</v>
+        <v>0.8548093319545342</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8409439418466671</v>
+        <v>0.8403222564882564</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8375697564661637</v>
+        <v>0.8372462344095682</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8232432744484405</v>
+        <v>0.8248299994713907</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8342304125398068</v>
+        <v>0.8341404546193283</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8315506508502569</v>
+        <v>0.8327474869225535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.817965209024622</v>
+        <v>0.8167201130191504</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8895034541228922</v>
+        <v>0.8890252264414121</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8845726393969728</v>
+        <v>0.8842660439861765</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.87846249616343</v>
+        <v>0.8781753315485344</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8591422045232778</v>
+        <v>0.8580964518046417</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8554082598162213</v>
+        <v>0.8554728652692245</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8446754993012919</v>
+        <v>0.8450180014172816</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>829625</v>
+        <v>828869</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>650014</v>
+        <v>648765</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>483038</v>
+        <v>482360</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1213916</v>
+        <v>1215705</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>906537</v>
+        <v>908239</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>757015</v>
+        <v>757469</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2057133</v>
+        <v>2056326</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1567332</v>
+        <v>1568721</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1247554</v>
+        <v>1251136</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>873286</v>
+        <v>872214</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>683572</v>
+        <v>684626</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>519153</v>
+        <v>518399</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1252886</v>
+        <v>1253455</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>938455</v>
+        <v>939576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>782092</v>
+        <v>782523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>2113294</v>
+        <v>2114366</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1613984</v>
+        <v>1617714</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1293619</v>
+        <v>1294546</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1475441</v>
+        <v>1483122</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1586216</v>
+        <v>1585722</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1662722</v>
+        <v>1662174</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1438842</v>
+        <v>1438851</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1661615</v>
+        <v>1664876</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1762925</v>
+        <v>1761150</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2937450</v>
+        <v>2940983</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3268722</v>
+        <v>3271323</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3446551</v>
+        <v>3454537</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1551403</v>
+        <v>1554174</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1663366</v>
+        <v>1663155</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1762336</v>
+        <v>1763160</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1497543</v>
+        <v>1501501</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1723334</v>
+        <v>1727378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1838704</v>
+        <v>1834026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>3035344</v>
+        <v>3036619</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3370356</v>
+        <v>3367596</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3573633</v>
+        <v>3582675</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>404065</v>
+        <v>402130</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>423495</v>
+        <v>424002</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>573074</v>
+        <v>573538</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>382209</v>
+        <v>383886</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>439855</v>
+        <v>439488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>637522</v>
+        <v>639849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>796077</v>
+        <v>794689</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>877227</v>
+        <v>873929</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1221414</v>
+        <v>1223870</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>431933</v>
+        <v>432546</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>460439</v>
+        <v>460309</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>617929</v>
+        <v>621364</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>412836</v>
+        <v>412870</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>475484</v>
+        <v>474388</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>671555</v>
+        <v>673196</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>837565</v>
+        <v>836473</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>925954</v>
+        <v>923041</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1279591</v>
+        <v>1281480</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2737929</v>
+        <v>2739375</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2695393</v>
+        <v>2692945</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2758095</v>
+        <v>2755327</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3064744</v>
+        <v>3063436</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3037365</v>
+        <v>3032703</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3180126</v>
+        <v>3182780</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5828670</v>
+        <v>5824361</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5753027</v>
+        <v>5750805</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5961990</v>
+        <v>5973482</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2833646</v>
+        <v>2833341</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2783583</v>
+        <v>2787589</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2878171</v>
+        <v>2873790</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3143848</v>
+        <v>3142157</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3114805</v>
+        <v>3113725</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3270850</v>
+        <v>3269780</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5954804</v>
+        <v>5947556</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5875555</v>
+        <v>5875998</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6117204</v>
+        <v>6119685</v>
       </c>
     </row>
     <row r="20">
